--- a/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -511,40 +511,40 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>21.6829767138364</v>
+        <v>16.27395536621195</v>
       </c>
       <c r="D2" t="n">
         <v>0.00301823225217215</v>
       </c>
       <c r="E2" t="n">
-        <v>0.008574046394687406</v>
+        <v>0.006275575909959944</v>
       </c>
       <c r="F2" t="n">
-        <v>12.61166428284574</v>
+        <v>9.007479029934334</v>
       </c>
       <c r="G2" t="n">
-        <v>12.35356349494838</v>
+        <v>8.808168683278657</v>
       </c>
       <c r="H2" t="n">
-        <v>12.87292629659362</v>
+        <v>9.210392217009293</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7289568193907207</v>
+        <v>0.009747342287103821</v>
       </c>
       <c r="J2" t="n">
-        <v>0.7159364780472183</v>
+        <v>0.008760115367642282</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7414928742170315</v>
+        <v>0.0109364128083565</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04986707717099022</v>
+        <v>0.004702444070009214</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04868534903762433</v>
+        <v>0.004464766308060805</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0510890224582442</v>
+        <v>0.004973624662091128</v>
       </c>
     </row>
     <row r="3">
@@ -557,40 +557,86 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3589057188001392</v>
+        <v>0.3589057182506037</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3038166774373344</v>
+        <v>0.3038166771491592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3557873749964925</v>
+        <v>0.3557873748505794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2447637549938292</v>
+        <v>0.2773225874354903</v>
       </c>
       <c r="G3" t="n">
-        <v>0.242847794892193</v>
+        <v>0.2765055622009212</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2482361690944414</v>
+        <v>0.278168124700982</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2190397368497415</v>
+        <v>0.2494149438776253</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2185730662506679</v>
+        <v>0.2486451159744145</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2197624432219591</v>
+        <v>0.2502098411367306</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2410406389190728</v>
+        <v>0.2747273246432781</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2407966752924161</v>
+        <v>0.273913793545053</v>
       </c>
       <c r="N3" t="n">
-        <v>0.241330079470075</v>
+        <v>0.2755698775706886</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Beta + Gamma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16.63286108446255</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.3068349094013313</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3620629507605393</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.284801617369823</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.084674245479578</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.488560341710276</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.2591622861647291</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.2574052313420567</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2611462539450872</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2794297687132873</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.2783785598531138</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2805435022327798</v>
       </c>
     </row>
   </sheetData>

--- a/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
+++ b/results/Co60/Co60_R_30_cm_Nr_2000000000_ISO_model_det1_det2_det3 - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.006275575909959944</v>
       </c>
       <c r="F2" t="n">
-        <v>9.006623648109658</v>
+        <v>9.006948722776087</v>
       </c>
       <c r="G2" t="n">
-        <v>8.812341325114458</v>
+        <v>8.806415168460042</v>
       </c>
       <c r="H2" t="n">
-        <v>9.208732419576698</v>
+        <v>9.208468791592765</v>
       </c>
       <c r="I2" t="n">
-        <v>0.009753321240836466</v>
+        <v>0.009749600947258831</v>
       </c>
       <c r="J2" t="n">
-        <v>0.008725901380902455</v>
+        <v>0.008728229721266247</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0109034282421321</v>
+        <v>0.01091254621706741</v>
       </c>
       <c r="L2" t="n">
-        <v>0.004702674505196435</v>
+        <v>0.004702502597597281</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004459579238139782</v>
+        <v>0.004457556515041075</v>
       </c>
       <c r="N2" t="n">
-        <v>0.004963062643446857</v>
+        <v>0.004966887922525317</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0.3557873748505794</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2773229200917381</v>
+        <v>0.2773227466811037</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2764589628340486</v>
+        <v>0.276475661748702</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2781956466781337</v>
+        <v>0.2782010286090696</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2494152601964803</v>
+        <v>0.2494150788188885</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2486006673744024</v>
+        <v>0.2486165673564611</v>
       </c>
       <c r="K3" t="n">
-        <v>0.250236066843775</v>
+        <v>0.2502412475741974</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2747276579669057</v>
+        <v>0.2747274822470684</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2738674234673655</v>
+        <v>0.273884035153016</v>
       </c>
       <c r="N3" t="n">
-        <v>0.275597248685664</v>
+        <v>0.275602624241971</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.3620629507605393</v>
       </c>
       <c r="F4" t="n">
-        <v>9.283946568201397</v>
+        <v>9.284271469457192</v>
       </c>
       <c r="G4" t="n">
-        <v>9.088800287948507</v>
+        <v>9.082890830208743</v>
       </c>
       <c r="H4" t="n">
-        <v>9.48692806625483</v>
+        <v>9.486669820201833</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2591685814373168</v>
+        <v>0.2591646797661473</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2573265687553049</v>
+        <v>0.2573447970777274</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2611394950859071</v>
+        <v>0.2611537937912648</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2794303324721021</v>
+        <v>0.2794299848446657</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2783270027055053</v>
+        <v>0.2783415916680571</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2805603113291109</v>
+        <v>0.2805695121644963</v>
       </c>
     </row>
   </sheetData>
